--- a/TPStranger/08082024-Stranger-TPRecord.xlsx
+++ b/TPStranger/08082024-Stranger-TPRecord.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,106 +443,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>PC</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>08/08/24</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>09:46:07</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>test1</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>08/08/24</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>10:18:19</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>test2</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>08/08/24</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>10:18:23</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>test3</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>08/08/24</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>10:18:26</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>TP060945</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>08/08/24</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>10:20:04</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/TPStranger/08082024-Stranger-TPRecord.xlsx
+++ b/TPStranger/08082024-Stranger-TPRecord.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,6 +443,26 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>TP060945</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>08/08/24</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11:12:07</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/TPStranger/08082024-Stranger-TPRecord.xlsx
+++ b/TPStranger/08082024-Stranger-TPRecord.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,6 +463,26 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Stranger App</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>08/08/24</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11:17:03</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
